--- a/Cargill Known Locomotive List.xlsx
+++ b/Cargill Known Locomotive List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dshi\Documents\GitHub\Web-Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD5C1A1-BE34-48A9-A1AE-BFB8C5BD416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC2F7DA-3EB2-49B6-B801-E770382D4541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AE7A6C5-CD3C-4A7F-8B56-E6AABEC97266}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>Leased/Owned</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Company name</t>
   </si>
   <si>
-    <t>Parent company</t>
-  </si>
-  <si>
-    <t>Location County/City</t>
-  </si>
-  <si>
     <t>GMD</t>
   </si>
   <si>
@@ -170,27 +164,12 @@
     <t>RSSX 2537</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Gainesville</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>Ord</t>
-  </si>
-  <si>
     <t>SD24m</t>
   </si>
   <si>
     <t>Cargill Ag Horizons</t>
   </si>
   <si>
-    <t>Cheyenne Wells</t>
-  </si>
-  <si>
     <t>SD9</t>
   </si>
   <si>
@@ -200,30 +179,15 @@
     <t>MVPX 906</t>
   </si>
   <si>
-    <t>Savage</t>
-  </si>
-  <si>
     <t>SW900m</t>
   </si>
   <si>
     <t>RSSX 1503</t>
   </si>
   <si>
-    <t>Sikeston</t>
-  </si>
-  <si>
     <t>1943</t>
   </si>
   <si>
-    <t>Iowa Falls</t>
-  </si>
-  <si>
-    <t>Miloma</t>
-  </si>
-  <si>
-    <t>Dana</t>
-  </si>
-  <si>
     <t>SD24d</t>
   </si>
   <si>
@@ -234,9 +198,6 @@
   </si>
   <si>
     <t>Cargill Westwego Elevator</t>
-  </si>
-  <si>
-    <t>Westwego</t>
   </si>
   <si>
     <t>Locomotive ID (Reporting Mark)</t>
@@ -645,534 +606,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52734771-F49B-4C7A-A606-407A2B80040C}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>35230</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>1500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>22066</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>1750</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>22861</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>1750</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F5">
+        <v>25366</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>18886</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>1500</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F7">
+        <v>19441</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1750</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>24137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>1200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>23080</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>20416</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>1200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>17899</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>20385</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>900</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>24143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>1200</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>25369</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>25123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>1750</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>35230</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>1500</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F16">
+        <v>17229</v>
+      </c>
+      <c r="G16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>22066</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>1750</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>22861</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>1750</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>25366</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>18886</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <v>1500</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7">
-        <v>19441</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>1750</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>24137</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8">
-        <v>1200</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9">
-        <v>23080</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>20416</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10">
-        <v>1200</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11">
-        <v>17899</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12">
-        <v>20385</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12">
-        <v>900</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
-        <v>24143</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <v>1200</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14">
-        <v>25369</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <v>25123</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15">
-        <v>1750</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
       <c r="H16">
-        <v>17229</v>
+        <v>800</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16">
-        <v>800</v>
-      </c>
-      <c r="K16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 L1 I1 J1" xr:uid="{5C3D3E92-F4AC-4A16-8FC4-5885927527EA}">
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 J1 G1 H1" xr:uid="{5C3D3E92-F4AC-4A16-8FC4-5885927527EA}">
       <formula1>2030</formula1>
     </dataValidation>
   </dataValidations>
